--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.48135356412959</v>
+        <v>4.804102</v>
       </c>
       <c r="H2">
-        <v>4.48135356412959</v>
+        <v>14.412306</v>
       </c>
       <c r="I2">
-        <v>0.1968627600249559</v>
+        <v>0.2049869746002892</v>
       </c>
       <c r="J2">
-        <v>0.1968627600249559</v>
+        <v>0.2049869746002892</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.08104999940383</v>
+        <v>1.238502</v>
       </c>
       <c r="N2">
-        <v>1.08104999940383</v>
+        <v>3.715506</v>
       </c>
       <c r="O2">
-        <v>0.2300979428625217</v>
+        <v>0.2117788764206845</v>
       </c>
       <c r="P2">
-        <v>0.2300979428625217</v>
+        <v>0.2117788764206845</v>
       </c>
       <c r="Q2">
-        <v>4.844567267830644</v>
+        <v>5.949889935204</v>
       </c>
       <c r="R2">
-        <v>4.844567267830644</v>
+        <v>53.549009416836</v>
       </c>
       <c r="S2">
-        <v>0.04529771610798062</v>
+        <v>0.04341191116172465</v>
       </c>
       <c r="T2">
-        <v>0.04529771610798062</v>
+        <v>0.04341191116172465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.48135356412959</v>
+        <v>4.804102</v>
       </c>
       <c r="H3">
-        <v>4.48135356412959</v>
+        <v>14.412306</v>
       </c>
       <c r="I3">
-        <v>0.1968627600249559</v>
+        <v>0.2049869746002892</v>
       </c>
       <c r="J3">
-        <v>0.1968627600249559</v>
+        <v>0.2049869746002892</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.51564455241583</v>
+        <v>1.695367333333333</v>
       </c>
       <c r="N3">
-        <v>1.51564455241583</v>
+        <v>5.086101999999999</v>
       </c>
       <c r="O3">
-        <v>0.3225999665269824</v>
+        <v>0.2899010166908616</v>
       </c>
       <c r="P3">
-        <v>0.3225999665269824</v>
+        <v>0.2899010166908616</v>
       </c>
       <c r="Q3">
-        <v>6.792139116922276</v>
+        <v>8.144717596801334</v>
       </c>
       <c r="R3">
-        <v>6.792139116922276</v>
+        <v>73.302458371212</v>
       </c>
       <c r="S3">
-        <v>0.06350791979446013</v>
+        <v>0.05942593234500767</v>
       </c>
       <c r="T3">
-        <v>0.06350791979446013</v>
+        <v>0.05942593234500766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.48135356412959</v>
+        <v>4.804102</v>
       </c>
       <c r="H4">
-        <v>4.48135356412959</v>
+        <v>14.412306</v>
       </c>
       <c r="I4">
-        <v>0.1968627600249559</v>
+        <v>0.2049869746002892</v>
       </c>
       <c r="J4">
-        <v>0.1968627600249559</v>
+        <v>0.2049869746002892</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.36414501393986</v>
+        <v>2.167891333333333</v>
       </c>
       <c r="N4">
-        <v>1.36414501393986</v>
+        <v>6.503674</v>
       </c>
       <c r="O4">
-        <v>0.2903537871946978</v>
+        <v>0.3707007261800733</v>
       </c>
       <c r="P4">
-        <v>0.2903537871946978</v>
+        <v>0.3707007261800732</v>
       </c>
       <c r="Q4">
-        <v>6.113216120209001</v>
+        <v>10.41477109024934</v>
       </c>
       <c r="R4">
-        <v>6.113216120209001</v>
+        <v>93.73293981224401</v>
       </c>
       <c r="S4">
-        <v>0.05715984793084689</v>
+        <v>0.07598882034178345</v>
       </c>
       <c r="T4">
-        <v>0.05715984793084689</v>
+        <v>0.07598882034178343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.48135356412959</v>
+        <v>4.804102</v>
       </c>
       <c r="H5">
-        <v>4.48135356412959</v>
+        <v>14.412306</v>
       </c>
       <c r="I5">
-        <v>0.1968627600249559</v>
+        <v>0.2049869746002892</v>
       </c>
       <c r="J5">
-        <v>0.1968627600249559</v>
+        <v>0.2049869746002892</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.737377141243953</v>
+        <v>0.7463296666666667</v>
       </c>
       <c r="N5">
-        <v>0.737377141243953</v>
+        <v>2.238989</v>
       </c>
       <c r="O5">
-        <v>0.1569483034157981</v>
+        <v>0.1276193807083805</v>
       </c>
       <c r="P5">
-        <v>0.1569483034157981</v>
+        <v>0.1276193807083805</v>
       </c>
       <c r="Q5">
-        <v>3.304447680021277</v>
+        <v>3.585443844292667</v>
       </c>
       <c r="R5">
-        <v>3.304447680021277</v>
+        <v>32.268994598634</v>
       </c>
       <c r="S5">
-        <v>0.03089727619166823</v>
+        <v>0.02616031075177344</v>
       </c>
       <c r="T5">
-        <v>0.03089727619166823</v>
+        <v>0.02616031075177343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.41591812864392</v>
+        <v>8.489274999999999</v>
       </c>
       <c r="H6">
-        <v>8.41591812864392</v>
+        <v>25.467825</v>
       </c>
       <c r="I6">
-        <v>0.3697054577907867</v>
+        <v>0.3622301938634671</v>
       </c>
       <c r="J6">
-        <v>0.3697054577907867</v>
+        <v>0.3622301938634671</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.08104999940383</v>
+        <v>1.238502</v>
       </c>
       <c r="N6">
-        <v>1.08104999940383</v>
+        <v>3.715506</v>
       </c>
       <c r="O6">
-        <v>0.2300979428625217</v>
+        <v>0.2117788764206845</v>
       </c>
       <c r="P6">
-        <v>0.2300979428625217</v>
+        <v>0.2117788764206845</v>
       </c>
       <c r="Q6">
-        <v>9.098028287953193</v>
+        <v>10.51398406605</v>
       </c>
       <c r="R6">
-        <v>9.098028287953193</v>
+        <v>94.62585659444998</v>
       </c>
       <c r="S6">
-        <v>0.08506846530270688</v>
+        <v>0.07671270346205181</v>
       </c>
       <c r="T6">
-        <v>0.08506846530270688</v>
+        <v>0.07671270346205179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.41591812864392</v>
+        <v>8.489274999999999</v>
       </c>
       <c r="H7">
-        <v>8.41591812864392</v>
+        <v>25.467825</v>
       </c>
       <c r="I7">
-        <v>0.3697054577907867</v>
+        <v>0.3622301938634671</v>
       </c>
       <c r="J7">
-        <v>0.3697054577907867</v>
+        <v>0.3622301938634671</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.51564455241583</v>
+        <v>1.695367333333333</v>
       </c>
       <c r="N7">
-        <v>1.51564455241583</v>
+        <v>5.086101999999999</v>
       </c>
       <c r="O7">
-        <v>0.3225999665269824</v>
+        <v>0.2899010166908616</v>
       </c>
       <c r="P7">
-        <v>0.3225999665269824</v>
+        <v>0.2899010166908616</v>
       </c>
       <c r="Q7">
-        <v>12.75554046525678</v>
+        <v>14.39243951868333</v>
       </c>
       <c r="R7">
-        <v>12.75554046525678</v>
+        <v>129.53195566815</v>
       </c>
       <c r="S7">
-        <v>0.1192669683081505</v>
+        <v>0.105010901477147</v>
       </c>
       <c r="T7">
-        <v>0.1192669683081505</v>
+        <v>0.105010901477147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.41591812864392</v>
+        <v>8.489274999999999</v>
       </c>
       <c r="H8">
-        <v>8.41591812864392</v>
+        <v>25.467825</v>
       </c>
       <c r="I8">
-        <v>0.3697054577907867</v>
+        <v>0.3622301938634671</v>
       </c>
       <c r="J8">
-        <v>0.3697054577907867</v>
+        <v>0.3622301938634671</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.36414501393986</v>
+        <v>2.167891333333333</v>
       </c>
       <c r="N8">
-        <v>1.36414501393986</v>
+        <v>6.503674</v>
       </c>
       <c r="O8">
-        <v>0.2903537871946978</v>
+        <v>0.3707007261800733</v>
       </c>
       <c r="P8">
-        <v>0.2903537871946978</v>
+        <v>0.3707007261800732</v>
       </c>
       <c r="Q8">
-        <v>11.48053275291568</v>
+        <v>18.40382569878333</v>
       </c>
       <c r="R8">
-        <v>11.48053275291568</v>
+        <v>165.63443128905</v>
       </c>
       <c r="S8">
-        <v>0.1073453798161044</v>
+        <v>0.134278995909536</v>
       </c>
       <c r="T8">
-        <v>0.1073453798161044</v>
+        <v>0.1342789959095359</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.41591812864392</v>
+        <v>8.489274999999999</v>
       </c>
       <c r="H9">
-        <v>8.41591812864392</v>
+        <v>25.467825</v>
       </c>
       <c r="I9">
-        <v>0.3697054577907867</v>
+        <v>0.3622301938634671</v>
       </c>
       <c r="J9">
-        <v>0.3697054577907867</v>
+        <v>0.3622301938634671</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.737377141243953</v>
+        <v>0.7463296666666667</v>
       </c>
       <c r="N9">
-        <v>0.737377141243953</v>
+        <v>2.238989</v>
       </c>
       <c r="O9">
-        <v>0.1569483034157981</v>
+        <v>0.1276193807083805</v>
       </c>
       <c r="P9">
-        <v>0.1569483034157981</v>
+        <v>0.1276193807083805</v>
       </c>
       <c r="Q9">
-        <v>6.205705650642613</v>
+        <v>6.335797780991666</v>
       </c>
       <c r="R9">
-        <v>6.205705650642613</v>
+        <v>57.022180028925</v>
       </c>
       <c r="S9">
-        <v>0.05802464436382494</v>
+        <v>0.04622759301473229</v>
       </c>
       <c r="T9">
-        <v>0.05802464436382494</v>
+        <v>0.04622759301473228</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.19210144684497</v>
+        <v>2.319169666666667</v>
       </c>
       <c r="H10">
-        <v>2.19210144684497</v>
+        <v>6.957509</v>
       </c>
       <c r="I10">
-        <v>0.09629749916070686</v>
+        <v>0.09895701081175237</v>
       </c>
       <c r="J10">
-        <v>0.09629749916070686</v>
+        <v>0.09895701081175236</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.08104999940383</v>
+        <v>1.238502</v>
       </c>
       <c r="N10">
-        <v>1.08104999940383</v>
+        <v>3.715506</v>
       </c>
       <c r="O10">
-        <v>0.2300979428625217</v>
+        <v>0.2117788764206845</v>
       </c>
       <c r="P10">
-        <v>0.2300979428625217</v>
+        <v>0.2117788764206845</v>
       </c>
       <c r="Q10">
-        <v>2.36977126780489</v>
+        <v>2.872296270506</v>
       </c>
       <c r="R10">
-        <v>2.36977126780489</v>
+        <v>25.850666434554</v>
       </c>
       <c r="S10">
-        <v>0.02215785645968406</v>
+        <v>0.02095700456366245</v>
       </c>
       <c r="T10">
-        <v>0.02215785645968406</v>
+        <v>0.02095700456366245</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.19210144684497</v>
+        <v>2.319169666666667</v>
       </c>
       <c r="H11">
-        <v>2.19210144684497</v>
+        <v>6.957509</v>
       </c>
       <c r="I11">
-        <v>0.09629749916070686</v>
+        <v>0.09895701081175237</v>
       </c>
       <c r="J11">
-        <v>0.09629749916070686</v>
+        <v>0.09895701081175236</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.51564455241583</v>
+        <v>1.695367333333333</v>
       </c>
       <c r="N11">
-        <v>1.51564455241583</v>
+        <v>5.086101999999999</v>
       </c>
       <c r="O11">
-        <v>0.3225999665269824</v>
+        <v>0.2899010166908616</v>
       </c>
       <c r="P11">
-        <v>0.3225999665269824</v>
+        <v>0.2899010166908616</v>
       </c>
       <c r="Q11">
-        <v>3.322446616253438</v>
+        <v>3.931844493324222</v>
       </c>
       <c r="R11">
-        <v>3.322446616253438</v>
+        <v>35.386600439918</v>
       </c>
       <c r="S11">
-        <v>0.03106557000587615</v>
+        <v>0.0286877380430156</v>
       </c>
       <c r="T11">
-        <v>0.03106557000587615</v>
+        <v>0.02868773804301559</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.19210144684497</v>
+        <v>2.319169666666667</v>
       </c>
       <c r="H12">
-        <v>2.19210144684497</v>
+        <v>6.957509</v>
       </c>
       <c r="I12">
-        <v>0.09629749916070686</v>
+        <v>0.09895701081175237</v>
       </c>
       <c r="J12">
-        <v>0.09629749916070686</v>
+        <v>0.09895701081175236</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.36414501393986</v>
+        <v>2.167891333333333</v>
       </c>
       <c r="N12">
-        <v>1.36414501393986</v>
+        <v>6.503674</v>
       </c>
       <c r="O12">
-        <v>0.2903537871946978</v>
+        <v>0.3707007261800733</v>
       </c>
       <c r="P12">
-        <v>0.2903537871946978</v>
+        <v>0.3707007261800732</v>
       </c>
       <c r="Q12">
-        <v>2.990344258763919</v>
+        <v>5.027707820896222</v>
       </c>
       <c r="R12">
-        <v>2.990344258763919</v>
+        <v>45.249370388066</v>
       </c>
       <c r="S12">
-        <v>0.02796034357868947</v>
+        <v>0.03668343576852597</v>
       </c>
       <c r="T12">
-        <v>0.02796034357868947</v>
+        <v>0.03668343576852596</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.19210144684497</v>
+        <v>2.319169666666667</v>
       </c>
       <c r="H13">
-        <v>2.19210144684497</v>
+        <v>6.957509</v>
       </c>
       <c r="I13">
-        <v>0.09629749916070686</v>
+        <v>0.09895701081175237</v>
       </c>
       <c r="J13">
-        <v>0.09629749916070686</v>
+        <v>0.09895701081175236</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.737377141243953</v>
+        <v>0.7463296666666667</v>
       </c>
       <c r="N13">
-        <v>0.737377141243953</v>
+        <v>2.238989</v>
       </c>
       <c r="O13">
-        <v>0.1569483034157981</v>
+        <v>0.1276193807083805</v>
       </c>
       <c r="P13">
-        <v>0.1569483034157981</v>
+        <v>0.1276193807083805</v>
       </c>
       <c r="Q13">
-        <v>1.616405498191277</v>
+        <v>1.730865124266778</v>
       </c>
       <c r="R13">
-        <v>1.616405498191277</v>
+        <v>15.577786118401</v>
       </c>
       <c r="S13">
-        <v>0.01511372911645719</v>
+        <v>0.01262883243654835</v>
       </c>
       <c r="T13">
-        <v>0.01511372911645719</v>
+        <v>0.01262883243654835</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.67447292025337</v>
+        <v>7.823586333333334</v>
       </c>
       <c r="H14">
-        <v>7.67447292025337</v>
+        <v>23.470759</v>
       </c>
       <c r="I14">
-        <v>0.3371342830235504</v>
+        <v>0.3338258207244912</v>
       </c>
       <c r="J14">
-        <v>0.3371342830235504</v>
+        <v>0.3338258207244912</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.08104999940383</v>
+        <v>1.238502</v>
       </c>
       <c r="N14">
-        <v>1.08104999940383</v>
+        <v>3.715506</v>
       </c>
       <c r="O14">
-        <v>0.2300979428625217</v>
+        <v>0.2117788764206845</v>
       </c>
       <c r="P14">
-        <v>0.2300979428625217</v>
+        <v>0.2117788764206845</v>
       </c>
       <c r="Q14">
-        <v>8.296488945864615</v>
+        <v>9.689527321006</v>
       </c>
       <c r="R14">
-        <v>8.296488945864615</v>
+        <v>87.205745889054</v>
       </c>
       <c r="S14">
-        <v>0.07757390499215013</v>
+        <v>0.07069725723324563</v>
       </c>
       <c r="T14">
-        <v>0.07757390499215013</v>
+        <v>0.07069725723324563</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.67447292025337</v>
+        <v>7.823586333333334</v>
       </c>
       <c r="H15">
-        <v>7.67447292025337</v>
+        <v>23.470759</v>
       </c>
       <c r="I15">
-        <v>0.3371342830235504</v>
+        <v>0.3338258207244912</v>
       </c>
       <c r="J15">
-        <v>0.3371342830235504</v>
+        <v>0.3338258207244912</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.51564455241583</v>
+        <v>1.695367333333333</v>
       </c>
       <c r="N15">
-        <v>1.51564455241583</v>
+        <v>5.086101999999999</v>
       </c>
       <c r="O15">
-        <v>0.3225999665269824</v>
+        <v>0.2899010166908616</v>
       </c>
       <c r="P15">
-        <v>0.3225999665269824</v>
+        <v>0.2899010166908616</v>
       </c>
       <c r="Q15">
-        <v>11.63177307424483</v>
+        <v>13.26385269904644</v>
       </c>
       <c r="R15">
-        <v>11.63177307424483</v>
+        <v>119.374674291418</v>
       </c>
       <c r="S15">
-        <v>0.1087595084184956</v>
+        <v>0.09677644482569131</v>
       </c>
       <c r="T15">
-        <v>0.1087595084184956</v>
+        <v>0.09677644482569131</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.67447292025337</v>
+        <v>7.823586333333334</v>
       </c>
       <c r="H16">
-        <v>7.67447292025337</v>
+        <v>23.470759</v>
       </c>
       <c r="I16">
-        <v>0.3371342830235504</v>
+        <v>0.3338258207244912</v>
       </c>
       <c r="J16">
-        <v>0.3371342830235504</v>
+        <v>0.3338258207244912</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.36414501393986</v>
+        <v>2.167891333333333</v>
       </c>
       <c r="N16">
-        <v>1.36414501393986</v>
+        <v>6.503674</v>
       </c>
       <c r="O16">
-        <v>0.2903537871946978</v>
+        <v>0.3707007261800733</v>
       </c>
       <c r="P16">
-        <v>0.2903537871946978</v>
+        <v>0.3707007261800732</v>
       </c>
       <c r="Q16">
-        <v>10.46909396878011</v>
+        <v>16.96068500761845</v>
       </c>
       <c r="R16">
-        <v>10.46909396878011</v>
+        <v>152.646165068566</v>
       </c>
       <c r="S16">
-        <v>0.09788821586905698</v>
+        <v>0.1237494741602279</v>
       </c>
       <c r="T16">
-        <v>0.09788821586905698</v>
+        <v>0.1237494741602278</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.67447292025337</v>
+        <v>7.823586333333334</v>
       </c>
       <c r="H17">
-        <v>7.67447292025337</v>
+        <v>23.470759</v>
       </c>
       <c r="I17">
-        <v>0.3371342830235504</v>
+        <v>0.3338258207244912</v>
       </c>
       <c r="J17">
-        <v>0.3371342830235504</v>
+        <v>0.3338258207244912</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.737377141243953</v>
+        <v>0.7463296666666667</v>
       </c>
       <c r="N17">
-        <v>0.737377141243953</v>
+        <v>2.238989</v>
       </c>
       <c r="O17">
-        <v>0.1569483034157981</v>
+        <v>0.1276193807083805</v>
       </c>
       <c r="P17">
-        <v>0.1569483034157981</v>
+        <v>0.1276193807083805</v>
       </c>
       <c r="Q17">
-        <v>5.658980902490562</v>
+        <v>5.838974580294556</v>
       </c>
       <c r="R17">
-        <v>5.658980902490562</v>
+        <v>52.55077122265101</v>
       </c>
       <c r="S17">
-        <v>0.05291265374384775</v>
+        <v>0.04260264450532644</v>
       </c>
       <c r="T17">
-        <v>0.05291265374384775</v>
+        <v>0.04260264450532644</v>
       </c>
     </row>
   </sheetData>
